--- a/SAO_LOURENCO_DO_SUL.xlsx
+++ b/SAO_LOURENCO_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A25985EA-2F47-43CB-BB93-E9356BEF16F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C1496A9-347B-4302-88A5-9DC356AB6917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1374,7 +1374,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{B4B8D7B7-F1F9-4BD0-BD05-E57E3214AEBB}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{C11AE8B9-A535-4246-A92C-2C708A5CC03C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1404,10 +1404,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6958F5-9056-45C8-A42C-51C1BE1738F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84786F73-8D86-47C1-844E-E3D7E16F2EDA}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1445,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE39E0A-6787-4137-8F60-206249DD5482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCCB457-FEC4-4FAE-9002-E01A42AC3ADC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,7 +1508,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F8B830-23A4-4E02-BD07-E500BFC92C08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC4A6BE-1E85-45E4-8B1D-6A09FD10904C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1527,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D4F8F6-7365-4A13-3AC6-0ABD407CA7F2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F2159B-4268-D1C9-37B7-8091456DDCB4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1576,7 +1576,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9701C82-A9AF-01C4-C584-C15BCC0A5EE2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5C718E-F555-0C2B-EA19-3E6281F19E1A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1595,7 +1595,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0615FCDC-DE74-FA90-1AD0-2D1F971F86B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0420DC-F3A1-D481-D7DB-26509FEA00D1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1626,7 +1626,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E723E2-B661-907F-C74C-D7CD515048D7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56EC542-43E4-7707-C3D6-1E6832572CB8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1657,7 +1657,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A07D53C-6576-B86D-75E4-0A77DA45E3AC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0CA40E-0CD9-8419-39ED-CB3122DEC831}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1700,7 +1700,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7B646B-90CF-404B-AC12-E6C4C82D5EA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A55F20D-461C-40F5-8D16-3F043F56BB6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1738,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431B6559-7D7D-4E5D-8C5C-9C09C8C16417}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AFE3D4-ADCC-4C78-980F-2205158BA013}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1781,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEE1598-D06E-4C57-8020-92C8C9D05432}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF9FA8B-0290-4FE4-AE0F-88C1E5CCA704}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BF4C35-A210-4A87-B6DC-19E48C03F7C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358A1775-8583-4922-899B-40256C252804}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SAO_LOURENCO_DO_SUL.xlsx
+++ b/SAO_LOURENCO_DO_SUL.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C1496A9-347B-4302-88A5-9DC356AB6917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40DA1373-99CA-43B4-9791-F05EB0764102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="9" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="BENS-INTERINOS" sheetId="4" r:id="rId5"/>
     <sheet name="TABELIÕES-DOAÇÃO" sheetId="5" r:id="rId6"/>
     <sheet name="CPIP" sheetId="6" r:id="rId7"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="7" r:id="rId8"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="8" r:id="rId9"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="349">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1075,15 +1074,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SAO LOURENÇO DO SUL</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1354,27 +1344,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{C11AE8B9-A535-4246-A92C-2C708A5CC03C}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{26C77C9D-9824-44E3-850E-8608BF1BD740}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1404,10 +1379,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84786F73-8D86-47C1-844E-E3D7E16F2EDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F647F34-AAED-4C91-B4E3-D15636134012}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1420,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCCB457-FEC4-4FAE-9002-E01A42AC3ADC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C04FFCAC-AF5E-4EDE-9B94-93A036228558}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,7 +1483,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC4A6BE-1E85-45E4-8B1D-6A09FD10904C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2E8549-D7F2-45AB-B2EA-AAA74C6C1060}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1502,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F2159B-4268-D1C9-37B7-8091456DDCB4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F45E0C-0B9A-DDB6-8442-3C336EE7D530}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1576,7 +1551,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5C718E-F555-0C2B-EA19-3E6281F19E1A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BBD51A-2F78-B524-7612-D1B131D44E54}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1595,7 +1570,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0420DC-F3A1-D481-D7DB-26509FEA00D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8D5459-02C4-7FFB-25EE-776AEDC57587}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1626,7 +1601,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56EC542-43E4-7707-C3D6-1E6832572CB8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B943AD7D-9B96-B702-D7B5-4DE14318B6BA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1657,7 +1632,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0CA40E-0CD9-8419-39ED-CB3122DEC831}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF5794F1-99E2-37E0-9953-C9B6690C3406}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1700,7 +1675,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A55F20D-461C-40F5-8D16-3F043F56BB6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6E962E-8C32-46FE-A0C3-6D4F3A80B8D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1713,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AFE3D4-ADCC-4C78-980F-2205158BA013}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{895A85F7-83FE-450F-82EB-823D0259CAEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1756,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF9FA8B-0290-4FE4-AE0F-88C1E5CCA704}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1986495-A354-4D99-9E7E-D1080987E4B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358A1775-8583-4922-899B-40256C252804}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D23BDB1-4B77-4BFE-AE0C-41871AF992D3}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2106,98 +2081,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="38"/>
-    <col min="6" max="6" width="2" style="38" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="38"/>
+    <col min="1" max="5" width="12.5703125" style="33"/>
+    <col min="6" max="6" width="2" style="33" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="37"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="37"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="37"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="37"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="37"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="37"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="37"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="37"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="37"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="37"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="37"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="37"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="37"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="37"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="37"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="37"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="37"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="37"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="37"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="37"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="37"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="37"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="37"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="37"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="37"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="37"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="37"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="37"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="37"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7312,52 +7287,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="E1" s="33">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="B2" s="36">
-        <v>49</v>
-      </c>
-      <c r="C2" s="34">
-        <v>3.2403121280253941E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SAO_LOURENCO_DO_SUL.xlsx
+++ b/SAO_LOURENCO_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40DA1373-99CA-43B4-9791-F05EB0764102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9750313D-7BCB-4F7C-8256-37984780CA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1349,7 +1349,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{26C77C9D-9824-44E3-850E-8608BF1BD740}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{7F86CB4A-E4D0-48E3-8F0E-C5C68419B1EF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1379,10 +1379,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F647F34-AAED-4C91-B4E3-D15636134012}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE8DAE7-2056-43A4-ABB5-1DE24C11C737}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1420,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C04FFCAC-AF5E-4EDE-9B94-93A036228558}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82F399A-3FB3-4A36-85AF-AE86E5B30287}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1483,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2E8549-D7F2-45AB-B2EA-AAA74C6C1060}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A198FBF0-322E-4C46-AED1-6A9925940EEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1502,7 +1502,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F45E0C-0B9A-DDB6-8442-3C336EE7D530}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A285DE6-879A-82FA-E7F3-1D965A628C89}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1551,7 +1551,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BBD51A-2F78-B524-7612-D1B131D44E54}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B96827-4EA1-0B29-BEA3-126215A04F0D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1570,7 +1570,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8D5459-02C4-7FFB-25EE-776AEDC57587}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC63703-BA15-C755-3172-EA62365ACF2C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1601,7 +1601,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B943AD7D-9B96-B702-D7B5-4DE14318B6BA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD5A0A3-4F66-709B-B41D-1DE02D96BF0D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1632,7 +1632,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF5794F1-99E2-37E0-9953-C9B6690C3406}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD51312B-CCA6-1C63-04B2-A00AEB6F528E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1675,7 +1675,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6E962E-8C32-46FE-A0C3-6D4F3A80B8D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0FED857-97AF-449F-BAB2-91095F821BF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,7 +1713,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{895A85F7-83FE-450F-82EB-823D0259CAEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE16DF3-748B-47BC-BE1E-8AE9F7D2FA61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,50 +1738,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1986495-A354-4D99-9E7E-D1080987E4B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2069,7 +2025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D23BDB1-4B77-4BFE-AE0C-41871AF992D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77548438-09EC-473C-9DFC-C5EA7E57990E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
